--- a/My own dataset.xlsx
+++ b/My own dataset.xlsx
@@ -5111,11 +5111,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Class data sorted</a:t>
+              <a:t>Class data </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> in order of charge strength</a:t>
+              <a:t>in order of charge strength, Log</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="30000"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Y-axis</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
